--- a/JIRA_EXCEL.xlsx
+++ b/JIRA_EXCEL.xlsx
@@ -24,25 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
-  <si>
-    <t>RBW-31222</t>
-  </si>
-  <si>
-    <t>RBW-31245</t>
-  </si>
-  <si>
-    <t>RBW-32334</t>
-  </si>
-  <si>
-    <t>RBW-31776</t>
-  </si>
-  <si>
-    <t>RBW-31777</t>
-  </si>
-  <si>
-    <t>RBW-31778</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Integrate JIRA with Alexa</t>
   </si>
@@ -77,21 +59,9 @@
     <t>Anshul</t>
   </si>
   <si>
-    <t>JIRA Creation</t>
-  </si>
-  <si>
-    <t>Jishu</t>
-  </si>
-  <si>
     <t>Code Review</t>
   </si>
   <si>
-    <t>Hosting and connecting server</t>
-  </si>
-  <si>
-    <t>Tao</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -102,6 +72,18 @@
   </si>
   <si>
     <t>developer</t>
+  </si>
+  <si>
+    <t>RBW-3234</t>
+  </si>
+  <si>
+    <t>RBW-3125</t>
+  </si>
+  <si>
+    <t>RBW-3122</t>
+  </si>
+  <si>
+    <t>RBW-3176</t>
   </si>
 </sst>
 </file>
@@ -451,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -475,100 +457,72 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/JIRA_EXCEL.xlsx
+++ b/JIRA_EXCEL.xlsx
@@ -74,16 +74,16 @@
     <t>developer</t>
   </si>
   <si>
-    <t>RBW-3234</t>
-  </si>
-  <si>
-    <t>RBW-3125</t>
-  </si>
-  <si>
-    <t>RBW-3122</t>
-  </si>
-  <si>
-    <t>RBW-3176</t>
+    <t>RBW-323</t>
+  </si>
+  <si>
+    <t>RBW-312</t>
+  </si>
+  <si>
+    <t>RBW-314</t>
+  </si>
+  <si>
+    <t>RBW-317</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/JIRA_EXCEL.xlsx
+++ b/JIRA_EXCEL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Integrate JIRA with Alexa</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Alexa skill to initiate Scrum meeting</t>
   </si>
   <si>
-    <t>Integrate Alexa with IBM Watson</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -47,12 +41,6 @@
     <t>Alexa Scrum Master Publishing MOM</t>
   </si>
   <si>
-    <t>Nandita</t>
-  </si>
-  <si>
-    <t>Nazeer</t>
-  </si>
-  <si>
     <t>Vijay</t>
   </si>
   <si>
@@ -80,10 +68,10 @@
     <t>RBW-312</t>
   </si>
   <si>
-    <t>RBW-314</t>
-  </si>
-  <si>
     <t>RBW-317</t>
+  </si>
+  <si>
+    <t>Tao</t>
   </si>
 </sst>
 </file>
@@ -433,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -457,72 +445,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
